--- a/COM1014-Tin-học-cơ-sở1.xlsx
+++ b/COM1014-Tin-học-cơ-sở1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="9075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz 01" sheetId="1" r:id="rId1"/>
@@ -3548,66 +3548,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="F70:F73"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="F74:F77"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="F78:F81"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -4864,66 +4864,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:F71"/>
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="F72:F75"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="B76:B79"/>
     <mergeCell ref="F76:F79"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -6098,66 +6098,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="F66:F69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -6168,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7374,66 +7374,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="F69:F72"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="F73:F76"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -7444,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8678,66 +8678,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="F67:F70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="F71:F74"/>
     <mergeCell ref="A75:A78"/>
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="F75:F78"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -8748,8 +8748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9954,66 +9954,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="F69:F72"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="F73:F76"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -11186,66 +11186,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="F69:F71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -12502,66 +12502,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="F69:F72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
     <mergeCell ref="F73:F75"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="B76:B79"/>
     <mergeCell ref="F76:F79"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/COM1014-Tin-học-cơ-sở1.xlsx
+++ b/COM1014-Tin-học-cơ-sở1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="9075" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="9075" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz 01" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Quiz 07" sheetId="7" r:id="rId7"/>
     <sheet name="Quiz 08" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="620">
   <si>
     <t>NO</t>
   </si>
@@ -1860,9 +1860,6 @@
   </si>
   <si>
     <t>Vận tải và Logistics</t>
-  </si>
-  <si>
-    <t>ABCD</t>
   </si>
   <si>
     <t>Công nghệ Blockchain có thể sẽ biến mất khi nào?</t>
@@ -1969,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1992,6 +1989,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3548,66 +3546,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F78:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -4864,66 +4862,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="F76:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -6098,66 +6096,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="F12:F15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="F70:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -7374,66 +7372,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="F73:F76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -8678,66 +8676,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="F75:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -8748,7 +8746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -9954,66 +9952,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="F73:F76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -10024,7 +10022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10086,7 +10086,7 @@
         <v>474</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -10113,9 +10113,7 @@
       <c r="D5" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10162,7 +10160,7 @@
         <v>480</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -10175,9 +10173,7 @@
       <c r="D9" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10194,7 +10190,7 @@
         <v>482</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -10237,9 +10233,7 @@
       <c r="D13" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10396,7 +10390,7 @@
         <v>496</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6"/>
     </row>
@@ -10423,9 +10417,6 @@
       <c r="D25" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10442,7 +10433,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -10485,9 +10476,6 @@
       <c r="D29" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10534,7 +10522,7 @@
         <v>507</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F32" s="6"/>
     </row>
@@ -10547,9 +10535,6 @@
       <c r="D33" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10566,7 +10551,7 @@
         <v>510</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
@@ -10609,9 +10594,6 @@
       <c r="D37" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10628,7 +10610,7 @@
         <v>513</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -10671,9 +10653,6 @@
       <c r="D41" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10782,7 +10761,7 @@
         <v>524</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -10795,9 +10774,6 @@
       <c r="D49" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10814,7 +10790,7 @@
         <v>527</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -10830,7 +10806,7 @@
         <v>528</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -10844,7 +10820,7 @@
         <v>529</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F52" s="6"/>
     </row>
@@ -10857,9 +10833,7 @@
       <c r="D53" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10892,7 +10866,7 @@
         <v>533</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" s="6"/>
     </row>
@@ -10919,9 +10893,7 @@
       <c r="D57" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10954,7 +10926,7 @@
         <v>538</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" s="6"/>
     </row>
@@ -10967,9 +10939,7 @@
       <c r="D60" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11020,7 +10990,7 @@
         <v>155</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
@@ -11035,9 +11005,6 @@
       <c r="D64" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11186,66 +11153,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="F72:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -11256,7 +11223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78:I79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11394,7 +11363,7 @@
         <v>558</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -11407,9 +11376,6 @@
       <c r="D9" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11456,7 +11422,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -11469,9 +11435,6 @@
       <c r="D13" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11504,7 +11467,7 @@
         <v>563</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -11531,9 +11494,6 @@
       <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,7 +11510,7 @@
         <v>565</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -11593,9 +11553,6 @@
       <c r="D21" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11612,7 +11569,7 @@
         <v>570</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -11655,9 +11612,6 @@
       <c r="D25" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11674,7 +11628,7 @@
         <v>575</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -11717,9 +11671,6 @@
       <c r="D29" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11828,7 +11779,7 @@
         <v>577</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F36" s="6"/>
     </row>
@@ -11841,9 +11792,6 @@
       <c r="D37" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11876,7 +11824,7 @@
         <v>576</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6"/>
     </row>
@@ -11903,9 +11851,6 @@
       <c r="D41" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11922,7 +11867,7 @@
         <v>583</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -11965,9 +11910,6 @@
       <c r="D45" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12014,7 +11956,7 @@
         <v>588</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -12027,9 +11969,6 @@
       <c r="D49" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12138,7 +12077,7 @@
         <v>594</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F56" s="6"/>
     </row>
@@ -12151,9 +12090,6 @@
       <c r="D57" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12186,7 +12122,7 @@
         <v>598</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" s="6"/>
     </row>
@@ -12199,9 +12135,6 @@
       <c r="D60" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12218,7 +12151,7 @@
         <v>601</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6">
         <v>1</v>
@@ -12234,7 +12167,7 @@
         <v>602</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F62" s="6"/>
     </row>
@@ -12248,7 +12181,7 @@
         <v>603</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F63" s="6"/>
     </row>
@@ -12261,9 +12194,7 @@
       <c r="D64" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12280,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F65" s="6">
         <v>1</v>
@@ -12296,7 +12227,7 @@
         <v>607</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" s="6"/>
     </row>
@@ -12310,7 +12241,7 @@
         <v>608</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F67" s="6"/>
     </row>
@@ -12324,7 +12255,7 @@
         <v>609</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>610</v>
+        <v>14</v>
       </c>
       <c r="F68" s="6"/>
     </row>
@@ -12333,13 +12264,13 @@
         <v>18</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -12355,10 +12286,10 @@
         <v>10</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6"/>
     </row>
@@ -12369,7 +12300,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
@@ -12383,10 +12314,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
+        <v>614</v>
       </c>
       <c r="F72" s="6"/>
     </row>
@@ -12395,7 +12323,7 @@
         <v>19</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -12404,7 +12332,7 @@
         <v>599</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -12433,9 +12361,6 @@
       <c r="D75" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12443,13 +12368,13 @@
         <v>20</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>618</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>9</v>
@@ -12465,7 +12390,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>9</v>
@@ -12479,10 +12404,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F78" s="6"/>
     </row>
@@ -12495,73 +12420,71 @@
       <c r="D79" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E79" s="8"/>
       <c r="F79" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="F76:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
